--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.042121.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Smith.Spring.042121.xlsx_with_dialog_acts.xlsx
@@ -1459,12 +1459,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1573,12 +1573,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2901,12 +2901,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3095,12 +3095,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3133,12 +3133,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3589,12 +3589,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4199,12 +4199,12 @@
       <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4351,12 +4351,12 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4579,12 +4579,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5301,12 +5301,12 @@
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5453,12 +5453,12 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6255,12 +6255,12 @@
       <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6445,12 +6445,12 @@
       <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7241,12 +7241,12 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7431,12 +7431,12 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7583,12 +7583,12 @@
       <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J188" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8307,12 +8307,12 @@
       </c>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8837,12 +8837,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8951,12 +8951,12 @@
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9215,12 +9215,12 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9403,12 +9403,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9787,12 +9787,12 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -10091,12 +10091,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10435,12 +10435,12 @@
       <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11541,12 +11541,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12111,12 +12111,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12339,12 +12339,12 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12605,12 +12605,12 @@
       <c r="H320" t="inlineStr"/>
       <c r="I320" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J320" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13981,12 +13981,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14247,12 +14247,12 @@
       <c r="H363" t="inlineStr"/>
       <c r="I363" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14741,12 +14741,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14855,12 +14855,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15349,12 +15349,12 @@
       <c r="H392" t="inlineStr"/>
       <c r="I392" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15425,12 +15425,12 @@
       <c r="H394" t="inlineStr"/>
       <c r="I394" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15577,12 +15577,12 @@
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15653,12 +15653,12 @@
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -16033,12 +16033,12 @@
       <c r="H410" t="inlineStr"/>
       <c r="I410" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
